--- a/data/trans_orig/CAMINAR_DIAS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_DIAS-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de días en los que se camina</t>
+          <t>Nº medio de días en los que se camina (tasa de respuesta: 98,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CAMINAR_DIAS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_DIAS-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 6,18</t>
+          <t>5,04; 6,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 5,71</t>
+          <t>4,57; 5,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 5,79</t>
+          <t>4,97; 5,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 5,98</t>
+          <t>5,4; 6,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,39</t>
+          <t>4,32; 5,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,79; 5,71</t>
+          <t>4,77; 5,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 6,02</t>
+          <t>5,43; 6,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 5,44</t>
+          <t>4,61; 5,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 5,64</t>
+          <t>5,0; 5,63</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 6,24</t>
+          <t>5,25; 6,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 5,5</t>
+          <t>4,65; 5,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 5,58</t>
+          <t>4,94; 5,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 6,3</t>
+          <t>5,41; 6,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,13</t>
+          <t>3,16; 5,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 5,79</t>
+          <t>5,18; 5,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 6,2</t>
+          <t>5,5; 6,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,18</t>
+          <t>3,75; 5,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 5,59</t>
+          <t>5,17; 5,63</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 5,75</t>
+          <t>5,13; 5,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 5,05</t>
+          <t>4,46; 5,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,13</t>
+          <t>4,37; 5,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 5,94</t>
+          <t>5,46; 5,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 4,97</t>
+          <t>4,48; 4,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 5,7</t>
+          <t>5,08; 5,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 5,76</t>
+          <t>5,39; 5,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 5,64</t>
+          <t>5,01; 5,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 5,77</t>
+          <t>4,84; 5,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 5,57</t>
+          <t>4,87; 5,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 5,79</t>
+          <t>5,39; 5,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 4,97</t>
+          <t>4,51; 4,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 5,41</t>
+          <t>4,7; 5,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 5,65</t>
+          <t>5,28; 5,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 5,57</t>
+          <t>4,8; 5,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 5,4</t>
+          <t>4,88; 5,38</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 5,82</t>
+          <t>5,43; 5,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 4,9</t>
+          <t>4,37; 4,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,3</t>
+          <t>4,42; 5,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 5,92</t>
+          <t>5,43; 5,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 4,83</t>
+          <t>4,37; 4,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,11; 5,72</t>
+          <t>5,16; 5,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 5,81</t>
+          <t>5,48; 5,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 4,79</t>
+          <t>4,44; 4,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 5,43</t>
+          <t>4,92; 5,44</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,9; 6,28</t>
+          <t>5,88; 6,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 5,39</t>
+          <t>4,82; 5,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,52; 6,24</t>
+          <t>5,51; 6,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,3; 5,76</t>
+          <t>5,33; 5,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,53</t>
+          <t>4,5; 6,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,16; 6,07</t>
+          <t>5,17; 6,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,67; 5,96</t>
+          <t>5,65; 5,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,3</t>
+          <t>4,77; 6,42</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 6,07</t>
+          <t>5,46; 6,04</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 5,59</t>
+          <t>4,9; 5,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 4,99</t>
+          <t>4,25; 4,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 6,04</t>
+          <t>4,92; 6,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 4,91</t>
+          <t>4,23; 4,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,62</t>
+          <t>3,07; 3,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 4,95</t>
+          <t>3,91; 4,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 5,1</t>
+          <t>4,55; 5,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 4,06</t>
+          <t>3,59; 4,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 5,29</t>
+          <t>4,55; 5,31</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,54; 5,74</t>
+          <t>5,49; 5,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,83; 5,37</t>
+          <t>4,85; 5,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,05; 5,36</t>
+          <t>5,05; 5,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,36; 5,56</t>
+          <t>5,41; 5,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,4; 5,34</t>
+          <t>4,43; 5,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,14; 5,42</t>
+          <t>5,16; 5,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,48; 5,61</t>
+          <t>5,47; 5,63</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 5,22</t>
+          <t>4,69; 5,26</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">

--- a/data/trans_orig/CAMINAR_DIAS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_DIAS-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,69</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,42</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>4,99</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>5,81</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,91</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,13</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>5,23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>5,75</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>5,07</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>5,35</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4,86; 5,89</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 5,85</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4,39; 5,07</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>5,04; 6,03</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 5,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 5,07</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,97; 5,85</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>4,44; 5,4</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 5,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 5,38</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>5,4; 6,13</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 5,36</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 5,38</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 5,67</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>4,83; 5,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 5,63</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 5,16</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>5,43; 6,01</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 5,43</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>4,69; 5,16</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>5,0; 5,63</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,17</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,78</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>5,88</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,02</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>5,08</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,39</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>5,83</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>5,39</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4,7; 5,56</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 5,59</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4,51; 5,18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>5,25; 6,16</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,65; 5,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 5,18</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,94; 5,59</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>4,66; 5,31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 5,8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 5,29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>5,41; 6,24</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 5,1</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,68; 5,29</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 5,8</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>4,81; 5,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,17; 5,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 5,15</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>5,5; 6,1</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 5,15</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 5,15</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>5,17; 5,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,83</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>5,48</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,83</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,79</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,39</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,86</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>5,72</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,86</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,39</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,09</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>5,6</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>4,74</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>4,43; 5,03</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 5,11</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 5,1</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>5,13; 5,74</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,46; 5,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,52; 5,1</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4,37; 5,11</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>4,49; 4,98</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 5,68</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 5,12</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>5,46; 5,95</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 4,98</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 5,12</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5,08; 5,68</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>4,53; 4,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 5,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,65; 5,03</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>5,39; 5,78</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 4,92</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4,65; 5,03</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>4,81; 5,31</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,56</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>5,32</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,36</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5,09</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4,82</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>5,64</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,75</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,82</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>5,48</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,12</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5,15</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,7; 5,21</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 5,54</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 4,82</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>5,01; 5,56</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 5,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 4,82</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,87; 5,54</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>4,54; 4,97</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 5,43</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 5,04</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>5,39; 5,82</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 4,96</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 5,04</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 5,43</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>4,7; 5,05</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 5,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,51; 4,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>5,28; 5,63</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 5,58</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 4,88</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>4,88; 5,38</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,89</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>5,67</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,89</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>4,66</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>5,66</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,63</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,46</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,12</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>5,67</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>5,12</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,37; 4,88</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 5,3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 5,25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>5,43; 5,89</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,37; 4,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 5,25</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>4,42; 5,3</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>4,42; 4,86</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 5,76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 5,5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>5,43; 5,89</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,37; 4,83</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>5,03; 5,5</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 5,76</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>4,47; 4,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 5,44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 5,3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>5,48; 5,82</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>4,44; 4,8</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 5,3</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>4,92; 5,44</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5,93</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,58</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>6,12</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,11</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,58</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,93</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,18</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>5,59</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,69</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,18</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5,8</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,37</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>5,84</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>5,8</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>4,81; 5,37</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5,51; 6,22</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 5,78</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>5,88; 6,29</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 5,38</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 5,78</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,51; 6,22</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>4,38; 4,84</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5,17; 6,02</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 5,39</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>5,33; 5,84</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 6,55</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 5,39</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,17; 6,02</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>4,66; 5,01</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 6,04</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 5,51</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>5,65; 5,99</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 6,42</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,2; 5,51</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,46; 6,04</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>5,27</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,61</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>4,55</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,23</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>4,83</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,19; 4,91</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 6,04</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 4,75</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>4,9; 5,61</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4,25; 4,96</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 4,75</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>4,92; 6,04</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>3,07; 3,61</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 4,94</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 4,35</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>4,23; 4,85</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 3,61</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 4,35</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,91; 4,94</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>3,56; 4,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 5,31</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 4,44</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>4,55; 5,03</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>3,59; 4,07</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 4,44</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>4,55; 5,31</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,22</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>5,6</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>5,22</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>4,61</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>5,52</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>5,29</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>5,56</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>4,81; 5,06</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 5,35</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 4,96</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>5,49; 5,71</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 5,35</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 4,96</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 5,35</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>4,51; 4,71</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 5,43</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 5,0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>5,41; 5,62</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>4,43; 5,37</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 5,0</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 5,43</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>4,69; 4,85</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 5,36</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 4,95</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>5,47; 5,63</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>4,69; 5,26</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 4,95</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>5,15; 5,36</t>
         </is>
       </c>
     </row>
